--- a/backend/uploads/Sathya_Coatings_ERP_Insights (1).xlsx
+++ b/backend/uploads/Sathya_Coatings_ERP_Insights (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R.Sanjay\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E12B5B-67F1-4ECE-9F8C-5DF5861779CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE45B87-F2A0-4628-A7AD-9EEDE52253C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
   <si>
     <t>Project ID</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>P005</t>
+  </si>
+  <si>
+    <t>P006</t>
   </si>
 </sst>
 </file>
@@ -1018,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1164,7 +1167,31 @@
         <v>56</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7">
+        <v>6363</v>
+      </c>
+      <c r="C7">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>44545</v>
+      </c>
+      <c r="E7">
+        <v>65565</v>
+      </c>
+      <c r="F7">
+        <v>6556</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/backend/uploads/Sathya_Coatings_ERP_Insights (1).xlsx
+++ b/backend/uploads/Sathya_Coatings_ERP_Insights (1).xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R.Sanjay\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE45B87-F2A0-4628-A7AD-9EEDE52253C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17720147-8B98-4853-B9BC-3A2010B1C7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Management" sheetId="2" r:id="rId1"/>
     <sheet name="Resource Allocation" sheetId="3" r:id="rId2"/>
     <sheet name="Costing &amp; Budgeting" sheetId="5" r:id="rId3"/>
-    <sheet name="Progress Tracking" sheetId="6" r:id="rId4"/>
-    <sheet name="Dashboard" sheetId="7" r:id="rId5"/>
+    <sheet name="user" sheetId="8" r:id="rId4"/>
+    <sheet name="Progress Tracking" sheetId="6" r:id="rId5"/>
+    <sheet name="Dashboard" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="89">
   <si>
     <t>Project ID</t>
   </si>
@@ -282,6 +283,15 @@
   </si>
   <si>
     <t>P006</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sajay</t>
   </si>
 </sst>
 </file>
@@ -346,11 +356,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1023,7 +1034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -1197,6 +1208,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4590D6-B0F6-4F17-A7D7-5290751FDC60}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7843</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1269,7 +1311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
